--- a/src/data/experimento.xlsx
+++ b/src/data/experimento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_Source_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\PY_TEST\Test01_render\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{109BF629-AC16-4B6A-836C-31226E0CAB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E85C0F8-D891-42F5-916B-D912723ADBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DF2E6045-9878-4AFA-A5FB-FF5DCBB8EC95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DF2E6045-9878-4AFA-A5FB-FF5DCBB8EC95}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -366,7 +366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -508,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,6 +523,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/src/data/experimento.xlsx
+++ b/src/data/experimento.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\PY_TEST\Test01_render\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E85C0F8-D891-42F5-916B-D912723ADBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D23A6-120F-4225-9701-0FA0B69AA819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DF2E6045-9878-4AFA-A5FB-FF5DCBB8EC95}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
   <si>
     <t>CURSO</t>
   </si>
@@ -76,10 +80,43 @@
     <t>1H</t>
   </si>
   <si>
-    <t>1I</t>
-  </si>
-  <si>
-    <t>1J</t>
+    <t>NIVEL</t>
+  </si>
+  <si>
+    <t>1MEDIO</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>2MEDIO</t>
+  </si>
+  <si>
+    <t>ASIGNATURA</t>
+  </si>
+  <si>
+    <t>LENGUAJE</t>
+  </si>
+  <si>
+    <t>MATEMÁTICA</t>
   </si>
 </sst>
 </file>
@@ -89,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +157,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +192,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,6 +255,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -516,239 +583,917 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F01C8D-6C6F-4B4B-BB9B-02B8DBA356CD}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5">
         <v>34</v>
       </c>
-      <c r="C2" s="5">
+      <c r="E2" s="5">
         <v>29</v>
       </c>
-      <c r="D2" s="5">
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F15" si="0">D2-E2</f>
         <v>5</v>
       </c>
-      <c r="E2" s="6">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="6">
+        <f t="shared" ref="G2:G15" si="1">E2/D2</f>
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="H2" s="10">
+        <f t="shared" ref="H2:H31" si="2">1-G2</f>
+        <v>0.1470588235294118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5">
         <v>33</v>
       </c>
-      <c r="C3" s="5">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E3" s="6">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="6">
+        <f t="shared" si="1"/>
+        <v>0.78787878787878785</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" si="2"/>
+        <v>0.21212121212121215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5">
         <v>34</v>
       </c>
-      <c r="C4" s="5">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E4" s="6">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.26500000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="2"/>
+        <v>0.26470588235294112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5">
         <v>31</v>
       </c>
-      <c r="C5" s="5">
+      <c r="E5" s="5">
         <v>23</v>
       </c>
-      <c r="D5" s="5">
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.25800000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="2"/>
+        <v>0.25806451612903225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5">
         <v>28</v>
       </c>
-      <c r="C6" s="5">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E6" s="6">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
+        <v>0.1071428571428571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5">
         <v>32</v>
       </c>
-      <c r="C7" s="5">
+      <c r="E7" s="5">
         <v>27</v>
       </c>
-      <c r="D7" s="5">
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E7" s="6">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.84375</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5">
         <v>34</v>
       </c>
-      <c r="C8" s="5">
+      <c r="E8" s="5">
         <v>31</v>
       </c>
-      <c r="D8" s="5">
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E8" s="6">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="F8" s="6">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.91176470588235292</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>8.8235294117647078E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5">
         <v>35</v>
       </c>
-      <c r="C9" s="5">
+      <c r="E9" s="5">
         <v>33</v>
       </c>
-      <c r="D9" s="5">
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9" s="6">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>5.7142857142857162E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5">
         <v>32</v>
       </c>
-      <c r="C10" s="5">
+      <c r="E10" s="5">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.9375</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.1428571428571429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="2"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.91891891891891897</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="2"/>
+        <v>8.108108108108103E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5">
+        <v>35</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F11:F30" si="3">D16-E16</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" ref="G11:G30" si="4">E16/D16</f>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" ref="H11:H16" si="5">1-G16</f>
+        <v>7.8947368421052655E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5">
         <v>32</v>
       </c>
-      <c r="D10" s="5">
+      <c r="F17" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="4"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="2"/>
+        <v>5.8823529411764719E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5">
+        <v>30</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="4"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090939E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5">
+        <v>34</v>
+      </c>
+      <c r="E19" s="5">
+        <v>32</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="4"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="2"/>
+        <v>5.8823529411764719E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5">
+        <v>31</v>
+      </c>
+      <c r="E20" s="5">
+        <v>31</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E10" s="6">
+      <c r="G20" s="6">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F10" s="6">
+      <c r="H20" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5">
+        <v>27</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="4"/>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285698E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5">
+        <v>32</v>
+      </c>
+      <c r="E22" s="5">
+        <v>30</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.9375</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5">
+        <v>34</v>
+      </c>
+      <c r="E23" s="5">
+        <v>34</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5">
+        <v>35</v>
+      </c>
+      <c r="E24" s="5">
+        <v>30</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="4"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="2"/>
+        <v>0.1428571428571429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5">
+        <v>32</v>
+      </c>
+      <c r="E25" s="5">
         <v>31</v>
       </c>
-      <c r="C11" s="5">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F11" s="6">
-        <v>0</v>
+      <c r="G25" s="6">
+        <f t="shared" si="4"/>
+        <v>0.96875</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="2"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5">
+        <v>33</v>
+      </c>
+      <c r="E26" s="5">
+        <v>32</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="4"/>
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="2"/>
+        <v>3.0303030303030276E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="5">
+        <v>34</v>
+      </c>
+      <c r="E27" s="5">
+        <v>33</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="4"/>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="2"/>
+        <v>2.9411764705882359E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="5">
+        <v>35</v>
+      </c>
+      <c r="E28" s="5">
+        <v>34</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="4"/>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428581E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5">
+        <v>36</v>
+      </c>
+      <c r="E29" s="5">
+        <v>35</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="4"/>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="2"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="5">
+        <v>37</v>
+      </c>
+      <c r="E30" s="5">
+        <v>36</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="4"/>
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="2"/>
+        <v>2.7027027027026973E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="5">
+        <v>38</v>
+      </c>
+      <c r="E31" s="5">
+        <v>37</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" ref="F31" si="6">D31-E31</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" ref="G31" si="7">E31/D31</f>
+        <v>0.97368421052631582</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="2"/>
+        <v>2.6315789473684181E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/data/experimento.xlsx
+++ b/src/data/experimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\PY_TEST\Test01_render\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D23A6-120F-4225-9701-0FA0B69AA819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D44771-6E20-473E-BAE4-DF7AE8FD3C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DF2E6045-9878-4AFA-A5FB-FF5DCBB8EC95}"/>
   </bookViews>
@@ -236,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,9 +254,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,10 +597,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -646,7 +643,7 @@
         <f t="shared" ref="G2:G15" si="1">E2/D2</f>
         <v>0.8529411764705882</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <f t="shared" ref="H2:H31" si="2">1-G2</f>
         <v>0.1470588235294118</v>
       </c>
@@ -675,7 +672,7 @@
         <f t="shared" si="1"/>
         <v>0.78787878787878785</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <f t="shared" si="2"/>
         <v>0.21212121212121215</v>
       </c>
@@ -704,7 +701,7 @@
         <f t="shared" si="1"/>
         <v>0.73529411764705888</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <f t="shared" si="2"/>
         <v>0.26470588235294112</v>
       </c>
@@ -733,7 +730,7 @@
         <f t="shared" si="1"/>
         <v>0.74193548387096775</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f t="shared" si="2"/>
         <v>0.25806451612903225</v>
       </c>
@@ -762,7 +759,7 @@
         <f t="shared" si="1"/>
         <v>0.8928571428571429</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f t="shared" si="2"/>
         <v>0.1071428571428571</v>
       </c>
@@ -791,7 +788,7 @@
         <f t="shared" si="1"/>
         <v>0.84375</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
@@ -820,7 +817,7 @@
         <f t="shared" si="1"/>
         <v>0.91176470588235292</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f t="shared" si="2"/>
         <v>8.8235294117647078E-2</v>
       </c>
@@ -849,16 +846,16 @@
         <f t="shared" si="1"/>
         <v>0.94285714285714284</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f t="shared" si="2"/>
         <v>5.7142857142857162E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -878,16 +875,16 @@
         <f t="shared" si="1"/>
         <v>0.9375</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -907,16 +904,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -936,16 +933,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -965,16 +962,16 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="2"/>
         <v>0.1428571428571429</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -994,16 +991,16 @@
         <f t="shared" si="1"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f t="shared" si="2"/>
         <v>5.555555555555558E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1023,16 +1020,16 @@
         <f t="shared" si="1"/>
         <v>0.91891891891891897</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f t="shared" si="2"/>
         <v>8.108108108108103E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1045,15 +1042,15 @@
         <v>35</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" ref="F11:F30" si="3">D16-E16</f>
+        <f t="shared" ref="F16:F30" si="3">D16-E16</f>
         <v>3</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" ref="G11:G30" si="4">E16/D16</f>
+        <f t="shared" ref="G16:G30" si="4">E16/D16</f>
         <v>0.92105263157894735</v>
       </c>
-      <c r="H16" s="10">
-        <f t="shared" ref="H11:H16" si="5">1-G16</f>
+      <c r="H16" s="9">
+        <f t="shared" ref="H16" si="5">1-G16</f>
         <v>7.8947368421052655E-2</v>
       </c>
     </row>
@@ -1081,7 +1078,7 @@
         <f t="shared" si="4"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <f t="shared" si="2"/>
         <v>5.8823529411764719E-2</v>
       </c>
@@ -1110,7 +1107,7 @@
         <f t="shared" si="4"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <f t="shared" si="2"/>
         <v>9.0909090909090939E-2</v>
       </c>
@@ -1139,7 +1136,7 @@
         <f t="shared" si="4"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <f t="shared" si="2"/>
         <v>5.8823529411764719E-2</v>
       </c>
@@ -1168,7 +1165,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1197,7 +1194,7 @@
         <f t="shared" si="4"/>
         <v>0.9642857142857143</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <f t="shared" si="2"/>
         <v>3.5714285714285698E-2</v>
       </c>
@@ -1226,7 +1223,7 @@
         <f t="shared" si="4"/>
         <v>0.9375</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
@@ -1255,7 +1252,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1284,16 +1281,16 @@
         <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <f t="shared" si="2"/>
         <v>0.1428571428571429</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1313,16 +1310,16 @@
         <f t="shared" si="4"/>
         <v>0.96875</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1342,16 +1339,16 @@
         <f t="shared" si="4"/>
         <v>0.96969696969696972</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f t="shared" si="2"/>
         <v>3.0303030303030276E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1371,16 +1368,16 @@
         <f t="shared" si="4"/>
         <v>0.97058823529411764</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f t="shared" si="2"/>
         <v>2.9411764705882359E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1400,16 +1397,16 @@
         <f t="shared" si="4"/>
         <v>0.97142857142857142</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f t="shared" si="2"/>
         <v>2.8571428571428581E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1429,16 +1426,16 @@
         <f t="shared" si="4"/>
         <v>0.97222222222222221</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f t="shared" si="2"/>
         <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1458,16 +1455,16 @@
         <f t="shared" si="4"/>
         <v>0.97297297297297303</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f t="shared" si="2"/>
         <v>2.7027027027026973E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1487,7 +1484,7 @@
         <f t="shared" ref="G31" si="7">E31/D31</f>
         <v>0.97368421052631582</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f t="shared" si="2"/>
         <v>2.6315789473684181E-2</v>
       </c>

--- a/src/data/experimento.xlsx
+++ b/src/data/experimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\PY_TEST\Test01_render\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D44771-6E20-473E-BAE4-DF7AE8FD3C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86FB4B-75D3-47CF-8CB1-14C9055E8638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DF2E6045-9878-4AFA-A5FB-FF5DCBB8EC95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
   <si>
     <t>CURSO</t>
   </si>
@@ -117,6 +117,36 @@
   </si>
   <si>
     <t>MATEMÁTICA</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>3G</t>
+  </si>
+  <si>
+    <t>3H</t>
+  </si>
+  <si>
+    <t>3MEDIO</t>
+  </si>
+  <si>
+    <t>FILOSOFÍA</t>
   </si>
 </sst>
 </file>
@@ -236,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,6 +293,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F01C8D-6C6F-4B4B-BB9B-02B8DBA356CD}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,6 +1522,238 @@
         <v>2.6315789473684181E-2</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="10">
+        <v>34</v>
+      </c>
+      <c r="E32" s="10">
+        <v>33</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32:F39" si="8">D32-E32</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" ref="G32:G39" si="9">E32/D32</f>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" ref="H32:H39" si="10">1-G32</f>
+        <v>2.9411764705882359E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="10">
+        <v>35</v>
+      </c>
+      <c r="E33" s="10">
+        <v>30</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="9"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="10"/>
+        <v>0.1428571428571429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="10">
+        <v>37</v>
+      </c>
+      <c r="E34" s="10">
+        <v>32</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="9"/>
+        <v>0.86486486486486491</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="10"/>
+        <v>0.13513513513513509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="10">
+        <v>40</v>
+      </c>
+      <c r="E35" s="10">
+        <v>38</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="9"/>
+        <v>0.95</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="10"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="10">
+        <v>42</v>
+      </c>
+      <c r="E36" s="10">
+        <v>40</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="9"/>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="10"/>
+        <v>4.7619047619047672E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="10">
+        <v>35</v>
+      </c>
+      <c r="E37" s="10">
+        <v>35</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="10">
+        <v>33</v>
+      </c>
+      <c r="E38" s="10">
+        <v>30</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="9"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" si="10"/>
+        <v>9.0909090909090939E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="10">
+        <v>32</v>
+      </c>
+      <c r="E39" s="10">
+        <v>27</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="9"/>
+        <v>0.84375</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="10"/>
+        <v>0.15625</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/experimento.xlsx
+++ b/src/data/experimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\PY_TEST\Test01_render\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86FB4B-75D3-47CF-8CB1-14C9055E8638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D433467-D1ED-4016-8B12-5BB815D5693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DF2E6045-9878-4AFA-A5FB-FF5DCBB8EC95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
   <si>
     <t>CURSO</t>
   </si>
@@ -147,6 +147,42 @@
   </si>
   <si>
     <t>FILOSOFÍA</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>4H</t>
+  </si>
+  <si>
+    <t>4I</t>
+  </si>
+  <si>
+    <t>4J</t>
+  </si>
+  <si>
+    <t>4MEDIO</t>
+  </si>
+  <si>
+    <t>CIENCIAS CIUUDADANÍA</t>
   </si>
 </sst>
 </file>
@@ -266,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,6 +332,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -613,15 +655,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F01C8D-6C6F-4B4B-BB9B-02B8DBA356CD}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
@@ -1754,6 +1796,296 @@
         <v>0.15625</v>
       </c>
     </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="11">
+        <v>30</v>
+      </c>
+      <c r="E40" s="5">
+        <v>28</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" ref="F40:F49" si="11">D40-E40</f>
+        <v>2</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" ref="G40:G49" si="12">E40/D40</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" ref="H40:H49" si="13">1-G40</f>
+        <v>6.6666666666666652E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="11">
+        <v>31</v>
+      </c>
+      <c r="E41" s="5">
+        <v>31</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="5">
+        <v>29</v>
+      </c>
+      <c r="E42" s="5">
+        <v>25</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="12"/>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="13"/>
+        <v>0.13793103448275867</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="5">
+        <v>34</v>
+      </c>
+      <c r="E43" s="5">
+        <v>30</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="12"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="13"/>
+        <v>0.11764705882352944</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="5">
+        <v>32</v>
+      </c>
+      <c r="E44" s="5">
+        <v>32</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="5">
+        <v>29</v>
+      </c>
+      <c r="E45" s="5">
+        <v>28</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="12"/>
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="13"/>
+        <v>3.4482758620689613E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="5">
+        <v>35</v>
+      </c>
+      <c r="E46" s="5">
+        <v>34</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="12"/>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="H46" s="9">
+        <f t="shared" si="13"/>
+        <v>2.8571428571428581E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="5">
+        <v>34</v>
+      </c>
+      <c r="E47" s="5">
+        <v>32</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="12"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="13"/>
+        <v>5.8823529411764719E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="5">
+        <v>32</v>
+      </c>
+      <c r="E48" s="5">
+        <v>31</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="12"/>
+        <v>0.96875</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" si="13"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="5">
+        <v>30</v>
+      </c>
+      <c r="E49" s="5">
+        <v>28</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="12"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="13"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
